--- a/[ML]_Project_EDAOutputs_Group33/FeatureSelection/Lasso_Ridge_Coefficients_LogisticRegression_ScaledData.xlsx
+++ b/[ML]_Project_EDAOutputs_Group33/FeatureSelection/Lasso_Ridge_Coefficients_LogisticRegression_ScaledData.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.575413177832935</v>
+        <v>1.57543886191868</v>
       </c>
       <c r="C2" t="n">
-        <v>1.630053348481248</v>
+        <v>1.630050855843937</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8099128652783769</v>
+        <v>0.8097716461107546</v>
       </c>
       <c r="C3" t="n">
-        <v>1.094470013452554</v>
+        <v>1.09445149557249</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7894107230859913</v>
+        <v>0.7894561027044221</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8591798415888279</v>
+        <v>0.8591723041150827</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6936907535580092</v>
+        <v>0.6937865805805715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8154115314995993</v>
+        <v>0.8153937654080095</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5363043216451672</v>
+        <v>0.5353338540503336</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6152197882604389</v>
+        <v>0.6152143989100279</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4562868856291955</v>
+        <v>0.4552165533144245</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6050800212365315</v>
+        <v>0.6050717438000364</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4106703976631263</v>
+        <v>0.4105672887249264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5197440026910491</v>
+        <v>0.5197441959261917</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3394080891756463</v>
+        <v>0.3395788679857134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3586236479303341</v>
+        <v>0.3586235532517431</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2964472473209442</v>
+        <v>0.2964463962835104</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3179294031645903</v>
+        <v>0.317929405460718</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.270447845597424</v>
+        <v>0.2704627744659478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2987665284811419</v>
+        <v>0.2987653169152253</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.22191834161679</v>
+        <v>0.2219148918255573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2286831282903497</v>
+        <v>0.2286826433620724</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2019686592870863</v>
+        <v>0.2016197404632254</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2273232364487218</v>
+        <v>0.2273213190237119</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1993230981378714</v>
+        <v>0.1993171263601602</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2017523315924414</v>
+        <v>0.2017523706922117</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1884667529250854</v>
+        <v>0.1880471835343255</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2158823199959025</v>
+        <v>0.2158821803232566</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1695537889216734</v>
+        <v>0.1695626441825839</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1736371607484956</v>
+        <v>0.1736372386410373</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1686938688724755</v>
+        <v>0.1658334550357144</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1842437638346733</v>
+        <v>0.1842022268995179</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1303705924564088</v>
+        <v>0.130386624172111</v>
       </c>
       <c r="C18" t="n">
-        <v>0.159120568385948</v>
+        <v>0.1591205188250449</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1276965102702617</v>
+        <v>0.1277810584287528</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1424202215653224</v>
+        <v>0.1424196103905089</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.117506017995237</v>
+        <v>0.1175800574077004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1794861674697538</v>
+        <v>0.179487170598764</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07758639951050422</v>
+        <v>0.07759252370914266</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08809613468485834</v>
+        <v>0.0880958952247991</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.05660908935732571</v>
+        <v>0.05661979833048182</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08607601167883211</v>
+        <v>0.08607557118018749</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.05409931416897808</v>
+        <v>0.05410306091702752</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05999656465915307</v>
+        <v>0.05999652307471352</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.04953475809003266</v>
+        <v>0.04953929277035438</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05369110065596036</v>
+        <v>0.05369108999460283</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04067012993601231</v>
+        <v>0.04066126678866892</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04949794772803735</v>
+        <v>0.04949784910745045</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03714155317367677</v>
+        <v>0.03714513452004518</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03983693846739509</v>
+        <v>0.03983679771181727</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03498735839241335</v>
+        <v>0.03498748982463131</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0392668562304741</v>
+        <v>0.03926677554936067</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03001484877097438</v>
+        <v>0.03000881009826622</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03587950930961859</v>
+        <v>0.03587957027954419</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02561609175055557</v>
+        <v>0.02561835806192798</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04542045197382932</v>
+        <v>0.04542022834723412</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02522434454897429</v>
+        <v>0.02523753779673333</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02640935493105815</v>
+        <v>0.02640926846052709</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01719717188745029</v>
+        <v>0.0172049090285472</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02570357757919165</v>
+        <v>0.02570362336604556</v>
       </c>
     </row>
   </sheetData>
